--- a/data/metadatos-bga.xlsx
+++ b/data/metadatos-bga.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Obra" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Referencias" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Referentes" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -53,46 +53,46 @@
     <t>el-paraiso.jpg</t>
   </si>
   <si>
+    <t>Zócalo de la tragedia</t>
+  </si>
+  <si>
+    <t>100x70</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tipografía sobre papel</t>
+  </si>
+  <si>
+    <t>zocalo-tragedia.jpg</t>
+  </si>
+  <si>
+    <t>Periodico</t>
+  </si>
+  <si>
+    <t>Doble suicidio en "El Sisga"</t>
+  </si>
+  <si>
+    <t>06-29-1965</t>
+  </si>
+  <si>
+    <t>El Tiempo</t>
+  </si>
+  <si>
+    <t>doble-suicidio-el-tiempo.jpg</t>
+  </si>
+  <si>
+    <t>Una indígena y su hijo murieron en persecución</t>
+  </si>
+  <si>
+    <t>05-24-1996</t>
+  </si>
+  <si>
+    <t>indigena-hijo-el-tiempo.jpg</t>
+  </si>
+  <si>
     <t>Láminas de paisajes latinoamericanos</t>
   </si>
   <si>
     <t>laminas-paisajes.jpg</t>
-  </si>
-  <si>
-    <t>Zócalo de la tragedia</t>
-  </si>
-  <si>
-    <t>100x70</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tipografía sobre papel</t>
-  </si>
-  <si>
-    <t>zocalo-tragedia.jpg</t>
-  </si>
-  <si>
-    <t>Periodico</t>
-  </si>
-  <si>
-    <t>Doble suicidio en "El Sisga"</t>
-  </si>
-  <si>
-    <t>06-29-1965</t>
-  </si>
-  <si>
-    <t>El Tiempo</t>
-  </si>
-  <si>
-    <t>doble-suicidio-el-tiempo.jpg</t>
-  </si>
-  <si>
-    <t>Una indígena y su hijo murieron en persecución</t>
-  </si>
-  <si>
-    <t>05-24-1996</t>
-  </si>
-  <si>
-    <t>indigena-hijo-el-tiempo.jpg</t>
   </si>
   <si>
     <t>Exmilitar Mata a la Esposa de su Amigo y se Suicida</t>
@@ -453,34 +453,23 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <v>3.0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="C4" s="6">
+        <v>30317.0</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6">
-        <v>30317.0</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -513,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>5</v>
@@ -524,16 +513,16 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -541,21 +530,27 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5">
         <v>3.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">

--- a/data/metadatos-bga.xlsx
+++ b/data/metadatos-bga.xlsx
@@ -14,19 +14,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Titulo</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Dimensiones</t>
-  </si>
-  <si>
-    <t>Tecnica</t>
+    <t>dc.identifier</t>
+  </si>
+  <si>
+    <t>dc.title</t>
+  </si>
+  <si>
+    <t>dc.date</t>
+  </si>
+  <si>
+    <t>dc.format</t>
+  </si>
+  <si>
+    <t>dc.medium</t>
   </si>
   <si>
     <t>Archivo</t>
@@ -65,7 +65,7 @@
     <t>zocalo-tragedia.jpg</t>
   </si>
   <si>
-    <t>Periodico</t>
+    <t>dc.publisher</t>
   </si>
   <si>
     <t>Doble suicidio en "El Sisga"</t>
@@ -114,11 +114,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <sz val="9.0"/>
       <color rgb="FF000000"/>
@@ -152,7 +152,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -161,10 +164,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -408,67 +408,67 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1.0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>23743.0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2.0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>35431.0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5">
+      <c r="A4" s="1">
         <v>3.0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6">
         <v>30317.0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -498,69 +498,69 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1.0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2.0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5">
+      <c r="A4" s="1">
         <v>3.0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4.0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>28</v>
       </c>
     </row>
